--- a/transformations/lucas-mapping.xlsx
+++ b/transformations/lucas-mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/Desktop/SIEUSOIL-rel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D49AAF-6B8D-CF4B-989E-9665D327DB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0488C78-F2FC-BA44-BA51-28A3CC0E0EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{2FC3E94D-A5A7-E342-BECC-FF45CA68D9CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Point_ID</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>Layer observations</t>
+  </si>
+  <si>
+    <t>other in CSV</t>
+  </si>
+  <si>
+    <t>SOIL_STONES</t>
+  </si>
+  <si>
+    <t>Percentage of Stones in the sample, as a class</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -653,15 +665,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F46EE9-8BCE-0045-8D3A-0A9F78D587CC}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.5" bestFit="1" customWidth="1"/>
@@ -1018,6 +1030,22 @@
         <v>81</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
